--- a/tests/KMC_Master_Checkin.xlsx
+++ b/tests/KMC_Master_Checkin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,591 +502,2836 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>633647</v>
+        <v>423516</v>
       </c>
       <c r="B2" t="n">
-        <v>147312</v>
+        <v>124152</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ythompson@umich.edu</t>
+          <t>al@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nanotechnology 204</t>
+          <t>Surgery Preparation 2B2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dr. Taylor</t>
+          <t>Dr. Phil</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dylan Brown</t>
+          <t>Dylan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lab Assistant</t>
+          <t>Test Subject 2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nanotechnology</t>
+          <t>Surgery</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>University of California, Irvine</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Material Analysis</t>
+          <t>Incision Doctor</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Quantum Dots</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+          <t>John Doe Cancer Sore</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>13:56:29</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>421305</v>
+        <v>584627</v>
       </c>
       <c r="B3" t="n">
-        <v>134530</v>
+        <v>124653</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cjones@umich.edu</t>
+          <t>jsmithe@ucla.edu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mechanical Engineering 2B</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dr. Arnold</t>
+          <t>Prof. Monroe</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ava White</t>
+          <t>Bailey Jones</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Project Engineer</t>
+          <t>Volunteer 1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>University of California, LA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Machine Design</t>
+          <t>Cadaver Dissection</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Autonomous Vehicles</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+          <t>Maxillary Sinusitis</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>13:56:29</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>734628</v>
+        <v>795738</v>
       </c>
       <c r="B4" t="n">
-        <v>130463</v>
+        <v>125234</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>swilliams@cam.ac.uk</t>
+          <t>ltorres@ucsd.edu</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Computer Science 220</t>
+          <t>Biochemistry 3A4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>new_instructor</t>
+          <t>Dr. Kumar</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kiera Patel</t>
+          <t>Casey Taylor</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Study Participant</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Biochemistry</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>University of Cambridge</t>
+          <t>University of California, San Diego</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Algorithm Development</t>
+          <t>Tissue Analysis</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Artificial Intelligence Safety</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+          <t>Chronic Lymphocytic Leukemia</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>13:56:29</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>825739</v>
+        <v>936849</v>
       </c>
       <c r="B5" t="n">
-        <v>131044</v>
+        <v>125815</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>tunderwood@uoftoronto.ca</t>
+          <t>gwashington@harvard.edu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pharmacology 410</t>
+          <t>Immunology 202</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dr. Martinez</t>
+          <t>Prof. Chen</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liam Wong</t>
+          <t>Dana Kim</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Clinical Trial Volunteer</t>
+          <t>Research Assistant</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pharmacology</t>
+          <t>Immunology</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>University of Toronto</t>
+          <t>Harvard University</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Drug Tester</t>
+          <t>Antibody Production</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Alcoholism</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>Rheumatoid Arthritis</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>13:56:29</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>168162</v>
+        <v>177951</v>
       </c>
       <c r="B6" t="n">
-        <v>126977</v>
+        <v>126396</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mmorales@stanford.edu</t>
+          <t>rrwilliams@mit.edu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cognitive Science 4D1</t>
+          <t>Robotics Engineering 5B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Prof. Li</t>
+          <t>Dr. Rodriguez</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Erin Lee</t>
+          <t>Alfred Gonzalez</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Project Lead</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Psychology</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Stanford University</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Behavior Study</t>
+          <t>Prosthetic Development</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Social Anxiety Disorder</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+          <t>Osteoarthritis Knee</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>13:56:29</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>633647</v>
+        <v>168162</v>
       </c>
       <c r="B7" t="n">
-        <v>147312</v>
+        <v>126977</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ythompson@umich.edu</t>
+          <t>mmorales@stanford.edu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nanotechnology 204</t>
+          <t>Cognitive Science 4D1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dr. Taylor</t>
+          <t>Prof. Li</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dylan Brown</t>
+          <t>Erin Lee</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lab Assistant</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Nanotechnology</t>
+          <t>Psychology</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Material Analysis</t>
+          <t>Behavior Study</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Quantum Dots</t>
+          <t>Social Anxiety Disorder</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>19:42:54</t>
+          <t>13:56:29</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>421305</v>
+        <v>259273</v>
       </c>
       <c r="B8" t="n">
-        <v>134530</v>
+        <v>127558</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cjones@umich.edu</t>
+          <t>nnguyen@berkeley.edu</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mechanical Engineering 2B</t>
+          <t>Environmental Science 2C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dr. Arnold</t>
+          <t>Dr. Santos</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ava White</t>
+          <t>Fred</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Project Engineer</t>
+          <t>Field Researcher</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Environmental Studies</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>University of California, Berkeley</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Machine Design</t>
+          <t>Ecosystem Assessment</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Autonomous Vehicles</t>
+          <t>Coral Bleaching</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>19:42:54</t>
+          <t>13:56:29</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>734628</v>
+        <v>340284</v>
       </c>
       <c r="B9" t="n">
-        <v>130463</v>
+        <v>128139</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>swilliams@cam.ac.uk</t>
+          <t>ojohnson@jhu.edu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Computer Science 220</t>
+          <t>Public Health 320</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>new_instructor</t>
+          <t>Prof. Edwards</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kiera Patel</t>
+          <t>George Smith</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Public Health</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>University of Cambridge</t>
+          <t>Johns Hopkins University</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Algorithm Development</t>
+          <t>Health Policy Analysis</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Artificial Intelligence Safety</t>
+          <t>Tuberculosis</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>19:42:54</t>
+          <t>13:56:30</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>825739</v>
+        <v>481395</v>
       </c>
       <c r="B10" t="n">
-        <v>131044</v>
+        <v>128720</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tunderwood@uoftoronto.ca</t>
+          <t>plopez@yale.edu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pharmacology 410</t>
+          <t>Psychology 210A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dr. Martinez</t>
+          <t>Dr. White</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Liam Wong</t>
+          <t>Hannah Martin</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Clinical Trial Volunteer</t>
+          <t>Peer Counselor</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pharmacology</t>
+          <t>Mental Health</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>University of Toronto</t>
+          <t>Yale University</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Drug Tester</t>
+          <t>Psychological Assessment</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Alcoholism</t>
+          <t>Major Depressive Disorder</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>19:42:54</t>
+          <t>13:56:30</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>168162</v>
+        <v>572406</v>
       </c>
       <c r="B11" t="n">
-        <v>126977</v>
+        <v>129301</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mmorales@stanford.edu</t>
+          <t>qmartinez@princeton.edu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cognitive Science 4D1</t>
+          <t>Molecular Biology 4F3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Prof. Li</t>
+          <t>Prof. Green</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Erin Lee</t>
+          <t>Ian Douglas</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Lab Technician</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Princeton University</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Genetic Sequencing</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Hemophilia A</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>653517</v>
+      </c>
+      <c r="B12" t="n">
+        <v>129882</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>rvargas@ox.ac.uk</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Anatomy 101</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dr. Thompson</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jack O'Neill</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Teaching Assistant</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Anatomy</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>University of Oxford</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Thesis Review</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Victorian Era Literature</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>734628</v>
+      </c>
+      <c r="B13" t="n">
+        <v>130463</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>swilliams@cam.ac.uk</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Computer Science 220</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>new_instructor</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kiera Patel</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>University of Cambridge</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Algorithm Development</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence Safety</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>825739</v>
+      </c>
+      <c r="B14" t="n">
+        <v>131044</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>tunderwood@uoftoronto.ca</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Pharmacology 410</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dr. Martinez</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Liam Wong</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Clinical Trial Volunteer</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pharmacology</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>University of Toronto</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Drug Tester</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Alcoholism</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>886850</v>
+      </c>
+      <c r="B15" t="n">
+        <v>131625</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>kvazquez@columbia.edu</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Neuroscience 101</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Prof. Dawson</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Olivia Harris</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Research Participant</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Neuroscience</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Columbia University</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Brain Imaging</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Bipolar Disorder</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>947961</v>
+      </c>
+      <c r="B16" t="n">
+        <v>132206</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>emitchell@nyu.edu</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Anatomy 101</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Dr. Lee</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Samuel Thompson</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Research Assistant</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Anatomy</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>New York University</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Artwork Restoration</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Renaissance Art</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>138072</v>
+      </c>
+      <c r="B17" t="n">
+        <v>132787</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>fng@caltech.edu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Quantum Mechanics 300</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Prof. Wang</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Maya Robinson</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Lab Assistant</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Physics</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>California Institute of Technology</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Quantum Computing</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Quantum Entanglement</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>229183</v>
+      </c>
+      <c r="B18" t="n">
+        <v>133368</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ajackson@ucla.edu</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sports Medicine 310</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dr. Fisher</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Noah Garcia</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sports Medicine</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>University of California, LA</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Injury Prevention</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ACL Recovery</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>310294</v>
+      </c>
+      <c r="B19" t="n">
+        <v>133949</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bwilson@uchicago.edu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Anatomy 101</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Prof. Kumar</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Emma Martinez</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Field Researcher</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Anatomy</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>University of Chicago</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Social Survey</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Urban Poverty</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>421305</v>
+      </c>
+      <c r="B20" t="n">
+        <v>134530</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>cjones@umich.edu</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering 2B</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Dr. Arnold</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ava White</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Project Engineer</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>University of Michigan</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Machine Design</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Autonomous Vehicles</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>512416</v>
+      </c>
+      <c r="B21" t="n">
+        <v>135111</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>dlee@upenn.edu</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Veterinary Medicine 200</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Prof. Morris</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sophia Smith</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Veterinary Intern</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Veterinary Science</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>University of Pennsylvania</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Animal Health Monitoring</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Canine Parvovirus</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>693627</v>
+      </c>
+      <c r="B22" t="n">
+        <v>135692</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>eyoung@ox.ac.uk</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Anatomy 101</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dr. Black</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mason Johnson</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Research Assistant</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Anatomy</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>University of Oxford</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Ethical Studies</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Ethics of AI</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>774638</v>
+      </c>
+      <c r="B23" t="n">
+        <v>136273</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>fwright@cam.ac.uk</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Astrophysics 410</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Prof. Allen</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Isabella Brown</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Telescope Technician</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Astronomy</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>University of Cambridge</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Space Observation</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Black Holes</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>865749</v>
+      </c>
+      <c r="B24" t="n">
+        <v>136854</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>gnguyen@mit.edu</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Material Science 4C1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Dr. Carter</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Liam Davis</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Lab Technician</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Material Science</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Massachusetts Institute of Technology</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Nanomaterials</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Graphene Applications</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>956860</v>
+      </c>
+      <c r="B25" t="n">
+        <v>137435</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>hjohnson@stanford.edu</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Anatomy 101</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Prof. Smith</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Amelia Lopez</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Student Diplomat</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Anatomy</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Stanford University</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>International Negotiations</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Middle East Peace Process</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>147971</v>
+      </c>
+      <c r="B26" t="n">
+        <v>138016</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ijones@harvard.edu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Anatomy 101</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Dr. Wright</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Lucas Gonzalez</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Research Analyst</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Anatomy</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Harvard University</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Market Analysis</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Stock Market Trends</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>238082</v>
+      </c>
+      <c r="B27" t="n">
+        <v>138597</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>jlee@berkeley.edu</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Anatomy 101</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Prof. Harris</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Zoe Rodriguez</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Media Intern</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Anatomy</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>University of California, Berkeley</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Public Relations</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Media Influence on Politics</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>319193</v>
+      </c>
+      <c r="B28" t="n">
+        <v>139178</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ksmith@jhu.edu</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Immunotherapy 2D4</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Dr. White</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Emily Martinez</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Research Assistant</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Immunology</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Johns Hopkins University</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Cancer Treatment</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>CAR T-cell Therapy</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>430204</v>
+      </c>
+      <c r="B29" t="n">
+        <v>139759</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>lmartin@yale.edu</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Environmental Law 310</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Prof. Green</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Madison Hernandez</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Legal Intern</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Law</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Yale University</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Legislation Drafting</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Climate Change Law</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>521315</v>
+      </c>
+      <c r="B30" t="n">
+        <v>140340</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>mmitchell@princeton.edu</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Anatomy 101</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Dr. Brown</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Oliver King</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Field Researcher</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Anatomy</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Princeton University</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Excavation</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Ancient Civilizations</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>612426</v>
+      </c>
+      <c r="B31" t="n">
+        <v>140921</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>nwilson@ox.ac.uk</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Anatomy 101</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Prof. Bennett</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Charlotte Lee</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Music Archivist</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Anatomy</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>University of Oxford</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Music Composition Analysis</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Baroque Music</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>703537</v>
+      </c>
+      <c r="B32" t="n">
+        <v>141502</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>owhite@cam.ac.uk</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Biomedical Engineering 3B3</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Dr. Johnson</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mia Gonzalez</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Research Assistant</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>University of Cambridge</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Medical Device Innovation</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Prosthetic Limbs</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>794648</v>
+      </c>
+      <c r="B33" t="n">
+        <v>142083</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>pthompson@uoftoronto.ca</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Genetic Engineering 400</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Prof. Sanchez</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Benjamin Clark</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Lab Technician</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Genetics</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>University of Toronto</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Genome Editing</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>CRISPR-Cas9</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>885759</v>
+      </c>
+      <c r="B34" t="n">
+        <v>142664</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>qanderson@columbia.edu</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Anatomy 101</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Dr. Martinez</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Noah Patel</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Student Senator</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Anatomy</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Columbia University</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Policy Analysis</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Electoral Reforms</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>13:56:30</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>976870</v>
+      </c>
+      <c r="B35" t="n">
+        <v>143245</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>rsmith@nyu.edu</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Anatomy 101</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Prof. Lee</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sophia Walker</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Urban Intern</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Anatomy</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>New York University</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>City Planning</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Sustainable Cities</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>167981</v>
+      </c>
+      <c r="B36" t="n">
+        <v>143826</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>swilson@caltech.edu</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Computer Vision 320</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Dr. Thompson</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Jacob Carter</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>California Institute of Technology</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Image Processing</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Facial Recognition Technology</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>258092</v>
+      </c>
+      <c r="B37" t="n">
+        <v>144407</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>tlee@uchicago.edu</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Public Administration 410</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Prof. Davis</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Madison Young</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Policy Intern</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Public Administration</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>University of Chicago</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Government Efficiency</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Public Sector Reforms</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>349203</v>
+      </c>
+      <c r="B38" t="n">
+        <v>144988</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ujones@umich.edu</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Marine Biology 210</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Dr. Robinson</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ethan Thompson</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Marine Intern</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Marine Science</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>University of Michigan</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Ocean Conservation</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Coral Reef Restoration</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>360314</v>
+      </c>
+      <c r="B39" t="n">
+        <v>145569</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vbrown@cornell.edu</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Biotechnology 205</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Prof. Clark</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Grace Wilson</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Research Assistant</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Cornell University</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Genetic Engineering</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Gene Therapy for Cystic Fibrosis</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>451425</v>
+      </c>
+      <c r="B40" t="n">
+        <v>146150</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>wjones@duke.edu</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Clinical Psychology 312</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Dr. Martin</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Joseph Moore</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Psychological Intern</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>Psychology</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Stanford University</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Behavior Study</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Social Anxiety Disorder</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>19:42:54</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2024-05-15</t>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Duke University</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Behavioral Therapy</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Obsessive-Compulsive Disorder</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>542536</v>
+      </c>
+      <c r="B41" t="n">
+        <v>146731</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>xlee@ufl.edu</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Agricultural Science 418</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Prof. White</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Charlotte Davis</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Field Researcher</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>University of Florida</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Crop Improvement</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Drought Resistant Wheat</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>633647</v>
+      </c>
+      <c r="B42" t="n">
+        <v>147312</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ythompson@umich.edu</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Nanotechnology 204</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Dr. Taylor</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Dylan Brown</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Lab Assistant</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Nanotechnology</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>University of Michigan</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Material Analysis</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Quantum Dots</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>724758</v>
+      </c>
+      <c r="B43" t="n">
+        <v>147893</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>zmartin@ucsd.edu</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Environmental Law 202</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Prof. Edwards</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Isaac Johnson</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Research Assistant</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Environmental Law</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>University of California, San Diego</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Regulatory Analysis</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Endangered Species Protection</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>815869</v>
+      </c>
+      <c r="B44" t="n">
+        <v>148474</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>awilson@pennstate.edu</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Marine Ecology 319</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Dr. Cooper</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Olivia Garcia</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Field Intern</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Marine Sciences</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Pennsylvania State University</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Oceanography</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Coral Reef Ecosystems</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>906970</v>
+      </c>
+      <c r="B45" t="n">
+        <v>149055</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>bmartin@rutgers.edu</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Health Informatics 501</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Prof. Phillips</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sophia Hernandez</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Project Coordinator</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Health Informatics</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Rutgers University</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Health Data Analysis</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Patient Privacy in Digital Age</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>998081</v>
+      </c>
+      <c r="B46" t="n">
+        <v>149636</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>cnguyen@utexas.edu</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Renewable Energy Systems 300</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Dr. Sanchez</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Mia Anderson</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Research Intern</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Energy Systems</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>University of Texas at Austin</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Energy Efficiency</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Solar Power Optimization</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>13:56:31</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
         </is>
       </c>
     </row>
